--- a/src/global/utils/file-utils/locators.xlsx
+++ b/src/global/utils/file-utils/locators.xlsx
@@ -6,6 +6,7 @@
     <sheet name="signUp" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
     <sheet name="hamBurgerMenu" sheetId="3" r:id="rId3"/>
+    <sheet name="header" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -2042,4 +2043,290 @@
     <ignoredError numberStoredAsText="1" sqref="A1:F46"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>key</v>
+      </c>
+      <c r="B1" t="str">
+        <v>type</v>
+      </c>
+      <c r="C1" t="str">
+        <v>value</v>
+      </c>
+      <c r="D1" t="str">
+        <v>options</v>
+      </c>
+      <c r="E1" t="str">
+        <v>nth</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>menuButton</v>
+      </c>
+      <c r="B2" t="str">
+        <v>role</v>
+      </c>
+      <c r="C2" t="str">
+        <v>button</v>
+      </c>
+      <c r="D2" t="str">
+        <v>{"name":"menu"}</v>
+      </c>
+      <c r="E2" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>logoLink</v>
+      </c>
+      <c r="B3" t="str">
+        <v>role</v>
+      </c>
+      <c r="C3" t="str">
+        <v>link</v>
+      </c>
+      <c r="D3" t="str">
+        <v>{"name":"Jackpotcity", "exact":true}</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>searchButton</v>
+      </c>
+      <c r="B4" t="str">
+        <v>text</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Search games</v>
+      </c>
+      <c r="D4" t="str">
+        <v>{}</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>searchInput</v>
+      </c>
+      <c r="B5" t="str">
+        <v>role</v>
+      </c>
+      <c r="C5" t="str">
+        <v>textbox</v>
+      </c>
+      <c r="D5" t="str">
+        <v>{"name":"Search games"}</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>loginCTA</v>
+      </c>
+      <c r="B6" t="str">
+        <v>role</v>
+      </c>
+      <c r="C6" t="str">
+        <v>button</v>
+      </c>
+      <c r="D6" t="str">
+        <v>{"name":"Login"}</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>registerCTA</v>
+      </c>
+      <c r="B7" t="str">
+        <v>role</v>
+      </c>
+      <c r="C7" t="str">
+        <v>button</v>
+      </c>
+      <c r="D7" t="str">
+        <v>{"name":"Register"}</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>liveChatIcon</v>
+      </c>
+      <c r="B8" t="str">
+        <v>role</v>
+      </c>
+      <c r="C8" t="str">
+        <v>button</v>
+      </c>
+      <c r="D8" t="str">
+        <v>{"name":"Live Chat"}</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>themeToggle</v>
+      </c>
+      <c r="B9" t="str">
+        <v>css</v>
+      </c>
+      <c r="C9" t="str">
+        <v>#site-header [aria-label="light-mode"]</v>
+      </c>
+      <c r="D9" t="str">
+        <v>{}</v>
+      </c>
+      <c r="E9" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>profileIcon</v>
+      </c>
+      <c r="B10" t="str">
+        <v>role</v>
+      </c>
+      <c r="C10" t="str">
+        <v>button</v>
+      </c>
+      <c r="D10" t="str">
+        <v>{"name":"account", "exact":true}</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>notificationIcon</v>
+      </c>
+      <c r="B11" t="str">
+        <v>role</v>
+      </c>
+      <c r="C11" t="str">
+        <v>button</v>
+      </c>
+      <c r="D11" t="str">
+        <v>{"name":"notification-panel"}</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>depositCTA</v>
+      </c>
+      <c r="B12" t="str">
+        <v>css</v>
+      </c>
+      <c r="C12" t="str">
+        <v>div:has-text("Cash") button:has(svg path[d="m19.5 8.25-7.5 7.5-7.5-7.5"])</v>
+      </c>
+      <c r="D12" t="str">
+        <v>{}</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>accountBalancesDialog</v>
+      </c>
+      <c r="B13" t="str">
+        <v>css</v>
+      </c>
+      <c r="C13" t="str">
+        <v>div[role="dialog"]:has-text("Account Balances")</v>
+      </c>
+      <c r="D13" t="str">
+        <v>{}</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>usernameInput</v>
+      </c>
+      <c r="B14" t="str">
+        <v>role</v>
+      </c>
+      <c r="C14" t="str">
+        <v>textbox</v>
+      </c>
+      <c r="D14" t="str">
+        <v>{"name":"username"}</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>passwordInput</v>
+      </c>
+      <c r="B15" t="str">
+        <v>role</v>
+      </c>
+      <c r="C15" t="str">
+        <v>textbox</v>
+      </c>
+      <c r="D15" t="str">
+        <v>{"name":"password"}</v>
+      </c>
+      <c r="E15" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>submitLoginButton</v>
+      </c>
+      <c r="B16" t="str">
+        <v>role</v>
+      </c>
+      <c r="C16" t="str">
+        <v>button</v>
+      </c>
+      <c r="D16" t="str">
+        <v>{"name":"Submit"}</v>
+      </c>
+      <c r="E16" t="str">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E16"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/src/global/utils/file-utils/locators.xlsx
+++ b/src/global/utils/file-utils/locators.xlsx
@@ -7,6 +7,7 @@
     <sheet name="login" sheetId="2" r:id="rId2"/>
     <sheet name="hamBurgerMenu" sheetId="3" r:id="rId3"/>
     <sheet name="header" sheetId="4" r:id="rId4"/>
+    <sheet name="transactionHistory" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -2329,4 +2330,678 @@
     <ignoredError numberStoredAsText="1" sqref="A1:E16"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>page</v>
+      </c>
+      <c r="B1" t="str">
+        <v>key</v>
+      </c>
+      <c r="C1" t="str">
+        <v>type</v>
+      </c>
+      <c r="D1" t="str">
+        <v>value</v>
+      </c>
+      <c r="E1" t="str">
+        <v>options</v>
+      </c>
+      <c r="F1" t="str">
+        <v>nth_x000d_</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B2" t="str">
+        <v>menuButton</v>
+      </c>
+      <c r="C2" t="str">
+        <v>role</v>
+      </c>
+      <c r="D2" t="str">
+        <v>button</v>
+      </c>
+      <c r="E2" t="str">
+        <v>{"name":"menu"}</v>
+      </c>
+      <c r="F2" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B3" t="str">
+        <v>transactionSummaryLink</v>
+      </c>
+      <c r="C3" t="str">
+        <v>css</v>
+      </c>
+      <c r="D3" t="str">
+        <v>.hamburger-account-options:has-text('Transaction Summary')</v>
+      </c>
+      <c r="E3" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F3" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B4" t="str">
+        <v>filterButton</v>
+      </c>
+      <c r="C4" t="str">
+        <v>role</v>
+      </c>
+      <c r="D4" t="str">
+        <v>button</v>
+      </c>
+      <c r="E4" t="str">
+        <v>{"name":"Filter"}</v>
+      </c>
+      <c r="F4" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B5" t="str">
+        <v>startDateInput</v>
+      </c>
+      <c r="C5" t="str">
+        <v>role</v>
+      </c>
+      <c r="D5" t="str">
+        <v>combobox</v>
+      </c>
+      <c r="E5" t="str">
+        <v>{"name":"Start Date"}</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B6" t="str">
+        <v>endDateInput</v>
+      </c>
+      <c r="C6" t="str">
+        <v>role</v>
+      </c>
+      <c r="D6" t="str">
+        <v>combobox</v>
+      </c>
+      <c r="E6" t="str">
+        <v>{"name":"End Date"}</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B7" t="str">
+        <v>previousMonthButton</v>
+      </c>
+      <c r="C7" t="str">
+        <v>role</v>
+      </c>
+      <c r="D7" t="str">
+        <v>button</v>
+      </c>
+      <c r="E7" t="str">
+        <v>{"name":"Previous Month"}</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B8" t="str">
+        <v>continueButton</v>
+      </c>
+      <c r="C8" t="str">
+        <v>role</v>
+      </c>
+      <c r="D8" t="str">
+        <v>button</v>
+      </c>
+      <c r="E8" t="str">
+        <v>{"name":"Continue"}</v>
+      </c>
+      <c r="F8" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B9" t="str">
+        <v>resetButton</v>
+      </c>
+      <c r="C9" t="str">
+        <v>role</v>
+      </c>
+      <c r="D9" t="str">
+        <v>button</v>
+      </c>
+      <c r="E9" t="str">
+        <v>{"name":"Reset"}</v>
+      </c>
+      <c r="F9" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B10" t="str">
+        <v>closeFilterButton</v>
+      </c>
+      <c r="C10" t="str">
+        <v>css</v>
+      </c>
+      <c r="D10" t="str">
+        <v>[element-name='close-modal']</v>
+      </c>
+      <c r="E10" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F10" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B11" t="str">
+        <v>lastWeekButton</v>
+      </c>
+      <c r="C11" t="str">
+        <v>role</v>
+      </c>
+      <c r="D11" t="str">
+        <v>button</v>
+      </c>
+      <c r="E11" t="str">
+        <v>{"name":"Last Week"}</v>
+      </c>
+      <c r="F11" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B12" t="str">
+        <v>last2WeeksButton</v>
+      </c>
+      <c r="C12" t="str">
+        <v>role</v>
+      </c>
+      <c r="D12" t="str">
+        <v>button</v>
+      </c>
+      <c r="E12" t="str">
+        <v>{"name":"Last 2 weeks"}</v>
+      </c>
+      <c r="F12" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B13" t="str">
+        <v>lastMonthButton</v>
+      </c>
+      <c r="C13" t="str">
+        <v>role</v>
+      </c>
+      <c r="D13" t="str">
+        <v>button</v>
+      </c>
+      <c r="E13" t="str">
+        <v>{"name":"Last Month"}</v>
+      </c>
+      <c r="F13" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B14" t="str">
+        <v>typeDropdownLabelContainer</v>
+      </c>
+      <c r="C14" t="str">
+        <v>css</v>
+      </c>
+      <c r="D14" t="str">
+        <v>div[data-pc-section='labelcontainer']</v>
+      </c>
+      <c r="E14" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F14" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B15" t="str">
+        <v>typeFilterLabel</v>
+      </c>
+      <c r="C15" t="str">
+        <v>text</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Filter By Type</v>
+      </c>
+      <c r="E15" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F15" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B16" t="str">
+        <v>payoutToggleContainer</v>
+      </c>
+      <c r="C16" t="str">
+        <v>xpath</v>
+      </c>
+      <c r="D16" t="str">
+        <v>//*[text()='Show Payout Only']/..</v>
+      </c>
+      <c r="E16" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F16" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B17" t="str">
+        <v>payoutToggleInput</v>
+      </c>
+      <c r="C17" t="str">
+        <v>xpath</v>
+      </c>
+      <c r="D17" t="str">
+        <v>//*[text()='Show Payout Only']/..//input[@role='switch']</v>
+      </c>
+      <c r="E17" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F17" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B18" t="str">
+        <v>tableRows</v>
+      </c>
+      <c r="C18" t="str">
+        <v>css</v>
+      </c>
+      <c r="D18" t="str">
+        <v>tbody tr.rowData</v>
+      </c>
+      <c r="E18" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F18" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B19" t="str">
+        <v>columnHeaders</v>
+      </c>
+      <c r="C19" t="str">
+        <v>css</v>
+      </c>
+      <c r="D19" t="str">
+        <v>thead th</v>
+      </c>
+      <c r="E19" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F19" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B20" t="str">
+        <v>showDetailIcon</v>
+      </c>
+      <c r="C20" t="str">
+        <v>css</v>
+      </c>
+      <c r="D20" t="str">
+        <v>td .showDetail</v>
+      </c>
+      <c r="E20" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F20" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B21" t="str">
+        <v>detailViewBackBtn</v>
+      </c>
+      <c r="C21" t="str">
+        <v>css</v>
+      </c>
+      <c r="D21" t="str">
+        <v>button:has(svg path[d*='15.75 19.5'])</v>
+      </c>
+      <c r="E21" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F21" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B22" t="str">
+        <v>nextPageBtn</v>
+      </c>
+      <c r="C22" t="str">
+        <v>css</v>
+      </c>
+      <c r="D22" t="str">
+        <v>.border-l &gt; .w-6</v>
+      </c>
+      <c r="E22" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F22" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B23" t="str">
+        <v>prevPageBtn</v>
+      </c>
+      <c r="C23" t="str">
+        <v>css</v>
+      </c>
+      <c r="D23" t="str">
+        <v>.w-6.dark\:text-white &gt; path</v>
+      </c>
+      <c r="E23" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F23" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B24" t="str">
+        <v>pageNumbers</v>
+      </c>
+      <c r="C24" t="str">
+        <v>css</v>
+      </c>
+      <c r="D24" t="str">
+        <v>.pagination</v>
+      </c>
+      <c r="E24" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F24" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B25" t="str">
+        <v>goToPageEllipsis</v>
+      </c>
+      <c r="C25" t="str">
+        <v>text</v>
+      </c>
+      <c r="D25" t="str">
+        <v>...</v>
+      </c>
+      <c r="E25" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F25" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B26" t="str">
+        <v>goToInput</v>
+      </c>
+      <c r="C26" t="str">
+        <v>css</v>
+      </c>
+      <c r="D26" t="str">
+        <v>#goToInput</v>
+      </c>
+      <c r="E26" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F26" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B27" t="str">
+        <v>goButton</v>
+      </c>
+      <c r="C27" t="str">
+        <v>role</v>
+      </c>
+      <c r="D27" t="str">
+        <v>button</v>
+      </c>
+      <c r="E27" t="str">
+        <v>{"name":"go"}</v>
+      </c>
+      <c r="F27" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B28" t="str">
+        <v>refreshButton</v>
+      </c>
+      <c r="C28" t="str">
+        <v>role</v>
+      </c>
+      <c r="D28" t="str">
+        <v>button</v>
+      </c>
+      <c r="E28" t="str">
+        <v>{"name":"Refresh"}</v>
+      </c>
+      <c r="F28" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B29" t="str">
+        <v>noResultsMessage</v>
+      </c>
+      <c r="C29" t="str">
+        <v>text</v>
+      </c>
+      <c r="D29" t="str">
+        <v>No results</v>
+      </c>
+      <c r="E29" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F29" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B30" t="str">
+        <v>payoutOption</v>
+      </c>
+      <c r="C30" t="str">
+        <v>role</v>
+      </c>
+      <c r="D30" t="str">
+        <v>option</v>
+      </c>
+      <c r="E30" t="str">
+        <v>{"name":"Payout"}</v>
+      </c>
+      <c r="F30" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B31" t="str">
+        <v>wagerOption</v>
+      </c>
+      <c r="C31" t="str">
+        <v>role</v>
+      </c>
+      <c r="D31" t="str">
+        <v>option</v>
+      </c>
+      <c r="E31" t="str">
+        <v>{"name":"Wager"}</v>
+      </c>
+      <c r="F31" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B32" t="str">
+        <v>bonusOption</v>
+      </c>
+      <c r="C32" t="str">
+        <v>role</v>
+      </c>
+      <c r="D32" t="str">
+        <v>option</v>
+      </c>
+      <c r="E32" t="str">
+        <v>{"name":"Bonus"}</v>
+      </c>
+      <c r="F32" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>transactionHistory</v>
+      </c>
+      <c r="B33" t="str">
+        <v>accountAdjustmentOption</v>
+      </c>
+      <c r="C33" t="str">
+        <v>role</v>
+      </c>
+      <c r="D33" t="str">
+        <v>option</v>
+      </c>
+      <c r="E33" t="str">
+        <v>{"name":"Account Adjustment"}</v>
+      </c>
+      <c r="F33" t="str">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F33"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/src/global/utils/file-utils/locators.xlsx
+++ b/src/global/utils/file-utils/locators.xlsx
@@ -8,6 +8,8 @@
     <sheet name="hamBurgerMenu" sheetId="3" r:id="rId3"/>
     <sheet name="header" sheetId="4" r:id="rId4"/>
     <sheet name="transactionHistory" sheetId="5" r:id="rId5"/>
+    <sheet name="limits" sheetId="6" r:id="rId6"/>
+    <sheet name="updatePassword" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -3004,4 +3006,952 @@
     <ignoredError numberStoredAsText="1" sqref="A1:F33"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>page</v>
+      </c>
+      <c r="B1" t="str">
+        <v>key</v>
+      </c>
+      <c r="C1" t="str">
+        <v>type</v>
+      </c>
+      <c r="D1" t="str">
+        <v>value</v>
+      </c>
+      <c r="E1" t="str">
+        <v>options</v>
+      </c>
+      <c r="F1" t="str">
+        <v>nth_x000d_</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B2" t="str">
+        <v>depositButton</v>
+      </c>
+      <c r="C2" t="str">
+        <v>role</v>
+      </c>
+      <c r="D2" t="str">
+        <v>button</v>
+      </c>
+      <c r="E2" t="str">
+        <v>{"name":"Deposit"}</v>
+      </c>
+      <c r="F2" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B3" t="str">
+        <v>responsibleGamingButton</v>
+      </c>
+      <c r="C3" t="str">
+        <v>role</v>
+      </c>
+      <c r="D3" t="str">
+        <v>button</v>
+      </c>
+      <c r="E3" t="str">
+        <v>{"name":"responsible gaming"}</v>
+      </c>
+      <c r="F3" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B4" t="str">
+        <v>limitsTab</v>
+      </c>
+      <c r="C4" t="str">
+        <v>text</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Limits</v>
+      </c>
+      <c r="E4" t="str">
+        <v>{"exact":true}</v>
+      </c>
+      <c r="F4" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B5" t="str">
+        <v>limitsOptionsContainer</v>
+      </c>
+      <c r="C5" t="str">
+        <v>css</v>
+      </c>
+      <c r="D5" t="str">
+        <v>div.px-2.relative</v>
+      </c>
+      <c r="E5" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B6" t="str">
+        <v>dailyLimitInput</v>
+      </c>
+      <c r="C6" t="str">
+        <v>css</v>
+      </c>
+      <c r="D6" t="str">
+        <v>input[type='text'][data-pc-section='root']</v>
+      </c>
+      <c r="E6" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B7" t="str">
+        <v>weeklyLimitInput</v>
+      </c>
+      <c r="C7" t="str">
+        <v>css</v>
+      </c>
+      <c r="D7" t="str">
+        <v>input[type='text'][data-pc-section='root']</v>
+      </c>
+      <c r="E7" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F7" t="str">
+        <v>1_x000d_</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B8" t="str">
+        <v>monthlyLimitInput</v>
+      </c>
+      <c r="C8" t="str">
+        <v>css</v>
+      </c>
+      <c r="D8" t="str">
+        <v>input[type='text'][data-pc-section='root']</v>
+      </c>
+      <c r="E8" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F8" t="str">
+        <v>2_x000d_</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B9" t="str">
+        <v>dailyLimitSetButton</v>
+      </c>
+      <c r="C9" t="str">
+        <v>role</v>
+      </c>
+      <c r="D9" t="str">
+        <v>button</v>
+      </c>
+      <c r="E9" t="str">
+        <v>{"name":"Set Your Limit"}</v>
+      </c>
+      <c r="F9" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B10" t="str">
+        <v>weeklyLimitSetButton</v>
+      </c>
+      <c r="C10" t="str">
+        <v>role</v>
+      </c>
+      <c r="D10" t="str">
+        <v>button</v>
+      </c>
+      <c r="E10" t="str">
+        <v>{"name":"Set Your Limit"}</v>
+      </c>
+      <c r="F10" t="str">
+        <v>1_x000d_</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B11" t="str">
+        <v>monthlyLimitSetButton</v>
+      </c>
+      <c r="C11" t="str">
+        <v>role</v>
+      </c>
+      <c r="D11" t="str">
+        <v>button</v>
+      </c>
+      <c r="E11" t="str">
+        <v>{"name":"Set Your Limit"}</v>
+      </c>
+      <c r="F11" t="str">
+        <v>2_x000d_</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B12" t="str">
+        <v>setLimitButton</v>
+      </c>
+      <c r="C12" t="str">
+        <v>role</v>
+      </c>
+      <c r="D12" t="str">
+        <v>button</v>
+      </c>
+      <c r="E12" t="str">
+        <v>{"name":"Set Your Limit"}</v>
+      </c>
+      <c r="F12" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B13" t="str">
+        <v>dailyLimitSection</v>
+      </c>
+      <c r="C13" t="str">
+        <v>css</v>
+      </c>
+      <c r="D13" t="str">
+        <v>.relative.flex.flex-col.gap-4.pt-4</v>
+      </c>
+      <c r="E13" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F13" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B14" t="str">
+        <v>weeklyLimitSection</v>
+      </c>
+      <c r="C14" t="str">
+        <v>css</v>
+      </c>
+      <c r="D14" t="str">
+        <v>.relative.flex.flex-col.gap-4.pt-4</v>
+      </c>
+      <c r="E14" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F14" t="str">
+        <v>1_x000d_</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B15" t="str">
+        <v>monthlyLimitSection</v>
+      </c>
+      <c r="C15" t="str">
+        <v>css</v>
+      </c>
+      <c r="D15" t="str">
+        <v>.relative.flex.flex-col.gap-4.pt-4</v>
+      </c>
+      <c r="E15" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2_x000d_</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B16" t="str">
+        <v>dailyAccruedBar</v>
+      </c>
+      <c r="C16" t="str">
+        <v>css</v>
+      </c>
+      <c r="D16" t="str">
+        <v>div.rounded-md.bg-layer-2.p-2</v>
+      </c>
+      <c r="E16" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F16" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B17" t="str">
+        <v>weeklyAccruedBar</v>
+      </c>
+      <c r="C17" t="str">
+        <v>css</v>
+      </c>
+      <c r="D17" t="str">
+        <v>div.rounded-md.bg-layer-2.p-2</v>
+      </c>
+      <c r="E17" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F17" t="str">
+        <v>1_x000d_</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B18" t="str">
+        <v>monthlyAccruedBar</v>
+      </c>
+      <c r="C18" t="str">
+        <v>css</v>
+      </c>
+      <c r="D18" t="str">
+        <v>div.rounded-md.bg-layer-2.p-2</v>
+      </c>
+      <c r="E18" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2_x000d_</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B19" t="str">
+        <v>timeDropdown</v>
+      </c>
+      <c r="C19" t="str">
+        <v>role</v>
+      </c>
+      <c r="D19" t="str">
+        <v>combobox</v>
+      </c>
+      <c r="E19" t="str">
+        <v>{"name":"Time"}</v>
+      </c>
+      <c r="F19" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B20" t="str">
+        <v>submitButton</v>
+      </c>
+      <c r="C20" t="str">
+        <v>role</v>
+      </c>
+      <c r="D20" t="str">
+        <v>button</v>
+      </c>
+      <c r="E20" t="str">
+        <v>{"name":"Submit"}</v>
+      </c>
+      <c r="F20" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B21" t="str">
+        <v>successPopup</v>
+      </c>
+      <c r="C21" t="str">
+        <v>css</v>
+      </c>
+      <c r="D21" t="str">
+        <v>#pv_id_1_1_1_9</v>
+      </c>
+      <c r="E21" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F21" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B22" t="str">
+        <v>coolingOffContainer</v>
+      </c>
+      <c r="C22" t="str">
+        <v>css</v>
+      </c>
+      <c r="D22" t="str">
+        <v>div.flex.gap-4</v>
+      </c>
+      <c r="E22" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F22" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>limits</v>
+      </c>
+      <c r="B23" t="str">
+        <v>disabledCoolingOffButton</v>
+      </c>
+      <c r="C23" t="str">
+        <v>xpath</v>
+      </c>
+      <c r="D23" t="str">
+        <v>(//div[contains(@class,'flex gap-4')])[1]//button</v>
+      </c>
+      <c r="E23" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F23" t="str">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F23"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>page</v>
+      </c>
+      <c r="B1" t="str">
+        <v>key</v>
+      </c>
+      <c r="C1" t="str">
+        <v>type</v>
+      </c>
+      <c r="D1" t="str">
+        <v>value</v>
+      </c>
+      <c r="E1" t="str">
+        <v>options</v>
+      </c>
+      <c r="F1" t="str">
+        <v>nth_x000d_</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>updatePassword</v>
+      </c>
+      <c r="B2" t="str">
+        <v>depositButton</v>
+      </c>
+      <c r="C2" t="str">
+        <v>role</v>
+      </c>
+      <c r="D2" t="str">
+        <v>button</v>
+      </c>
+      <c r="E2" t="str">
+        <v>{"name":"Deposit"}</v>
+      </c>
+      <c r="F2" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>updatePassword</v>
+      </c>
+      <c r="B3" t="str">
+        <v>updatePasswordButton</v>
+      </c>
+      <c r="C3" t="str">
+        <v>role</v>
+      </c>
+      <c r="D3" t="str">
+        <v>button</v>
+      </c>
+      <c r="E3" t="str">
+        <v>{"name":"update password"}</v>
+      </c>
+      <c r="F3" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>updatePassword</v>
+      </c>
+      <c r="B4" t="str">
+        <v>sectionHeader</v>
+      </c>
+      <c r="C4" t="str">
+        <v>css</v>
+      </c>
+      <c r="D4" t="str">
+        <v>div[class='text-base-priority rounded-lg sm:py-1 mx-auto']</v>
+      </c>
+      <c r="E4" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F4" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>updatePassword</v>
+      </c>
+      <c r="B5" t="str">
+        <v>passwordValidityText</v>
+      </c>
+      <c r="C5" t="str">
+        <v>text</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Password Validity</v>
+      </c>
+      <c r="E5" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>updatePassword</v>
+      </c>
+      <c r="B6" t="str">
+        <v>passwordInput</v>
+      </c>
+      <c r="C6" t="str">
+        <v>role</v>
+      </c>
+      <c r="D6" t="str">
+        <v>textbox</v>
+      </c>
+      <c r="E6" t="str">
+        <v>{"name":"password", "exact":true}</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>updatePassword</v>
+      </c>
+      <c r="B7" t="str">
+        <v>confirmPasswordInput</v>
+      </c>
+      <c r="C7" t="str">
+        <v>role</v>
+      </c>
+      <c r="D7" t="str">
+        <v>textbox</v>
+      </c>
+      <c r="E7" t="str">
+        <v>{"name":"confirmPassword"}</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>updatePassword</v>
+      </c>
+      <c r="B8" t="str">
+        <v>eyeToggle</v>
+      </c>
+      <c r="C8" t="str">
+        <v>css</v>
+      </c>
+      <c r="D8" t="str">
+        <v>#password-label svg</v>
+      </c>
+      <c r="E8" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F8" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>updatePassword</v>
+      </c>
+      <c r="B9" t="str">
+        <v>provideValidPasswordError</v>
+      </c>
+      <c r="C9" t="str">
+        <v>text</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Provide Valid Password</v>
+      </c>
+      <c r="E9" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F9" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>updatePassword</v>
+      </c>
+      <c r="B10" t="str">
+        <v>mismatchError</v>
+      </c>
+      <c r="C10" t="str">
+        <v>text</v>
+      </c>
+      <c r="D10" t="str">
+        <v>passwords do not match.</v>
+      </c>
+      <c r="E10" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F10" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>updatePassword</v>
+      </c>
+      <c r="B11" t="str">
+        <v>successMatchMessage</v>
+      </c>
+      <c r="C11" t="str">
+        <v>text</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Passwords must match and be</v>
+      </c>
+      <c r="E11" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F11" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>updatePassword</v>
+      </c>
+      <c r="B12" t="str">
+        <v>oldPasswordError</v>
+      </c>
+      <c r="C12" t="str">
+        <v>css</v>
+      </c>
+      <c r="D12" t="str">
+        <v>div.flex-col.leading-4</v>
+      </c>
+      <c r="E12" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F12" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>updatePassword</v>
+      </c>
+      <c r="B13" t="str">
+        <v>updatePasswordSubmitButton</v>
+      </c>
+      <c r="C13" t="str">
+        <v>role</v>
+      </c>
+      <c r="D13" t="str">
+        <v>button</v>
+      </c>
+      <c r="E13" t="str">
+        <v>{"name":"Update Password", "exact":true}</v>
+      </c>
+      <c r="F13" t="str">
+        <v>0_x000d_</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>updatePassword</v>
+      </c>
+      <c r="B14" t="str">
+        <v>updatePasswordDisabledButton</v>
+      </c>
+      <c r="C14" t="str">
+        <v>text</v>
+      </c>
+      <c r="D14" t="str">
+        <v>UPDATE PASSWORD</v>
+      </c>
+      <c r="E14" t="str">
+        <v>{}</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2_x000d_</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v>_x000d_</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v>_x000d_</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v>_x000d_</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v>_x000d_</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v>_x000d_</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v>_x000d_</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v>_x000d_</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v>_x000d_</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F23"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/src/global/utils/file-utils/locators.xlsx
+++ b/src/global/utils/file-utils/locators.xlsx
@@ -1187,10 +1187,10 @@
         <v>css</v>
       </c>
       <c r="D3" t="str">
-        <v>svg path[d^="M12 2.25a.75.75"]</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>{}</v>
+        <v/>
       </c>
       <c r="F3" t="str">
         <v>0_x000d_</v>
